--- a/biology/Médecine/1601_en_santé_et_médecine/1601_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1601_en_santé_et_médecine/1601_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1601_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1601_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1601 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1601_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1601_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1601-1616 : série de printemps et d’étés chauds ou moyens[1].
-En Angleterre, promulgation des Poor Laws en Angleterre, réglementation officielle de l'assistance aux pauvres et de leur surveillance[2].
-Évacuation des ordures parisiennes par tombereaux en vertu du bail général pour le nettoiement des rues de 1601[3].
-Jean Robin (1550-1629), apothicaire et botaniste français, jardinier des rois Henri III, Henri IV et Louis XIII, introduit l'acacia en France[4], et l'arbre qu'il plante, aujourd'hui situé square René-Viviani[5],[6], est réputé le plus vieil arbre de Paris.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1601-1616 : série de printemps et d’étés chauds ou moyens.
+En Angleterre, promulgation des Poor Laws en Angleterre, réglementation officielle de l'assistance aux pauvres et de leur surveillance.
+Évacuation des ordures parisiennes par tombereaux en vertu du bail général pour le nettoiement des rues de 1601.
+Jean Robin (1550-1629), apothicaire et botaniste français, jardinier des rois Henri III, Henri IV et Louis XIII, introduit l'acacia en France, et l'arbre qu'il plante, aujourd'hui situé square René-Viviani est réputé le plus vieil arbre de Paris.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1601_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1601_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Charles de L'Écluse (1526-1609) publie chez Jean Moret, à Anvers, son Rariorum plantarum historia, traité de botanique et de mycologie[7].
-1600 ou 1601 : Giulio Cesare Casseri (c.1552-1616), professeur d'anatomie à Padoue, fait éditer son traité De vocis auditusque organis historia anatomica, sur « l'anatomie des organes vocaux et auditifs[8] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charles de L'Écluse (1526-1609) publie chez Jean Moret, à Anvers, son Rariorum plantarum historia, traité de botanique et de mycologie.
+1600 ou 1601 : Giulio Cesare Casseri (c.1552-1616), professeur d'anatomie à Padoue, fait éditer son traité De vocis auditusque organis historia anatomica, sur « l'anatomie des organes vocaux et auditifs ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1601_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1601_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>16 janvier : Nathan d'Aubigné (mort en 1669), fils naturel d'Agrippa d'Aubigné, médecin, mathématicien et astrologue[9], auteur d'une Bibliotheca chemica contracta[10].
-31 août : Guy Patin (mort en 1672), médecin et épistolier français[11],[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>16 janvier : Nathan d'Aubigné (mort en 1669), fils naturel d'Agrippa d'Aubigné, médecin, mathématicien et astrologue, auteur d'une Bibliotheca chemica contracta.
+31 août : Guy Patin (mort en 1672), médecin et épistolier français,.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1601_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1601_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>11 août : Johan Van Heurne (né en 1543), médecin et philosophe néerlandais[13].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11 août : Johan Van Heurne (né en 1543), médecin et philosophe néerlandais.</t>
         </is>
       </c>
     </row>
